--- a/import letter of credit test case of bank side.xlsx
+++ b/import letter of credit test case of bank side.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trade_Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BB96BE-B13B-4B73-831B-6392F6A4D2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DEC98-11FC-45DB-9121-7E02410F10BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <r>
       <t>System Name</t>
@@ -183,6 +183,50 @@
   <si>
     <t>custom certificate details fields should be optional and configurable.</t>
   </si>
+  <si>
+    <t>15/2/2024</t>
+  </si>
+  <si>
+    <t>lc payment.</t>
+  </si>
+  <si>
+    <t>the label 'Nostro Bank Name' :should be 'Correspondent Name'.
+The label 'Nostro Credit Account' :should be 'Correspondent Credit Account'.</t>
+  </si>
+  <si>
+    <t>lc payment, with adding new oup charges.</t>
+  </si>
+  <si>
+    <t>we could not add new oup charge, because some mandatory disabled fields left blank, check it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lc amendment </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the case in which we had 'reimbursing bank' in issuance event, then when amend the lc we need MT747 to be generated in addition to MT707 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at the same event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +236,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +275,19 @@
       <color theme="0"/>
       <name val="MS Gothic"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -381,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -411,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -929,7 +989,7 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="255">
+    <row r="15" spans="1:6" ht="240">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1012,6 +1072,57 @@
       </c>
       <c r="E19" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/import letter of credit test case of bank side.xlsx
+++ b/import letter of credit test case of bank side.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DEC98-11FC-45DB-9121-7E02410F10BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13AA71D-D005-4371-87F7-9BFCAC469DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <r>
       <t>System Name</t>
@@ -226,6 +226,33 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>lc amendment after bill lodgment event</t>
+  </si>
+  <si>
+    <t>now we could not apply amendment after bill lodgment, but we are in need to amend the lc after bill lodgment.</t>
+  </si>
+  <si>
+    <t>acknowledgment MT730</t>
+  </si>
+  <si>
+    <t>this event is not existed now, we need it.</t>
+  </si>
+  <si>
+    <t>20-2-2024</t>
+  </si>
+  <si>
+    <t>amendment event</t>
+  </si>
+  <si>
+    <t>in this event, the field channel should be gray.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issuanse event </t>
+  </si>
+  <si>
+    <t>the case in which we have sight lc, it is not acceptable to be able to select acceptance payment(acceptance event is copmatable only with the usanse lc).</t>
   </si>
 </sst>
 </file>
@@ -454,6 +481,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -468,9 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -753,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -773,31 +800,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
@@ -1101,7 +1128,7 @@
       <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1123,6 +1150,74 @@
       </c>
       <c r="E22" s="2" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="46.5" customHeight="1">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
